--- a/UFS 05 - Programmazione in Java e strumenti per lo sviluppo/LezioniConti_UFS05.xlsx
+++ b/UFS 05 - Programmazione in Java e strumenti per lo sviluppo/LezioniConti_UFS05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10508"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/BigSur_110/Users/ingconti/Documents/GIT-BigSur/its_rizzoli/UFS 05 - Programmazione in Java e strumenti per lo sviluppo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ingconti/Documents/GIT/its_rizzoli/UFS 05 - Programmazione in Java e strumenti per lo sviluppo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB832DD-64EF-D148-85C4-D3D56D967335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16C5F3A-9A5C-B84D-836B-72930C5D1CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="32520" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="760" windowWidth="32520" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lezioni_Docenti (22)" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="52">
   <si>
     <t>Data</t>
   </si>
@@ -170,6 +170,24 @@
   </si>
   <si>
     <t>ESAME</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>112 H</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>tot</t>
   </si>
 </sst>
 </file>
@@ -315,10 +333,12 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -694,7 +714,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -709,6 +729,7 @@
     <xf numFmtId="20" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1064,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2043,6 +2064,58 @@
         <v>28</v>
       </c>
     </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <f>SUM(E3:E30)</f>
+        <v>6660</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <f>E33/60</f>
+        <v>111</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38">
+        <v>54</v>
+      </c>
+      <c r="G38">
+        <v>54</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <f>SUM(F38:H38)</f>
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
